--- a/Team-Data/2012-13/3-21-2012-13.xlsx
+++ b/Team-Data/2012-13/3-21-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>0.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
@@ -756,7 +823,7 @@
         <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI2" t="n">
         <v>11</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-21-2012-13</t>
+          <t>2013-03-21</t>
         </is>
       </c>
     </row>
@@ -926,22 +993,22 @@
         <v>0.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
         <v>13</v>
       </c>
       <c r="AF3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH3" t="n">
         <v>1</v>
       </c>
       <c r="AI3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ3" t="n">
         <v>27</v>
@@ -1001,7 +1068,7 @@
         <v>18</v>
       </c>
       <c r="BC3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-21-2012-13</t>
+          <t>2013-03-21</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>1.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="n">
         <v>8</v>
@@ -1120,10 +1187,10 @@
         <v>9</v>
       </c>
       <c r="AH4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ4" t="n">
         <v>28</v>
@@ -1162,7 +1229,7 @@
         <v>28</v>
       </c>
       <c r="AV4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW4" t="n">
         <v>23</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-21-2012-13</t>
+          <t>2013-03-21</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-9.699999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1308,7 +1375,7 @@
         <v>30</v>
       </c>
       <c r="AJ5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK5" t="n">
         <v>30</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-21-2012-13</t>
+          <t>2013-03-21</t>
         </is>
       </c>
     </row>
@@ -1394,28 +1461,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" t="n">
         <v>36</v>
       </c>
       <c r="F6" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" t="n">
-        <v>0.537</v>
+        <v>0.545</v>
       </c>
       <c r="H6" t="n">
         <v>48.4</v>
       </c>
       <c r="I6" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="J6" t="n">
-        <v>81.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L6" t="n">
         <v>4.9</v>
@@ -1424,16 +1491,16 @@
         <v>14.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.339</v>
+        <v>0.34</v>
       </c>
       <c r="O6" t="n">
-        <v>16.6</v>
+        <v>16.8</v>
       </c>
       <c r="P6" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.787</v>
+        <v>0.788</v>
       </c>
       <c r="R6" t="n">
         <v>12.8</v>
@@ -1445,10 +1512,10 @@
         <v>43.4</v>
       </c>
       <c r="U6" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="V6" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W6" t="n">
         <v>7.3</v>
@@ -1460,28 +1527,28 @@
         <v>5.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA6" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB6" t="n">
-        <v>92.7</v>
+        <v>92.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
         <v>15</v>
@@ -1490,7 +1557,7 @@
         <v>25</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
         <v>25</v>
@@ -1523,13 +1590,13 @@
         <v>7</v>
       </c>
       <c r="AU6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AW6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX6" t="n">
         <v>9</v>
@@ -1547,7 +1614,7 @@
         <v>29</v>
       </c>
       <c r="BC6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-21-2012-13</t>
+          <t>2013-03-21</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-3.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE7" t="n">
         <v>28</v>
@@ -1696,7 +1763,7 @@
         <v>16</v>
       </c>
       <c r="AR7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS7" t="n">
         <v>30</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-21-2012-13</t>
+          <t>2013-03-21</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>-0.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
         <v>18</v>
@@ -1872,7 +1939,7 @@
         <v>18</v>
       </c>
       <c r="AP8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ8" t="n">
         <v>2</v>
@@ -1887,7 +1954,7 @@
         <v>16</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV8" t="n">
         <v>7</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-21-2012-13</t>
+          <t>2013-03-21</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" t="n">
         <v>22</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.681</v>
       </c>
       <c r="H9" t="n">
         <v>48.6</v>
@@ -1958,19 +2025,19 @@
         <v>40.8</v>
       </c>
       <c r="J9" t="n">
-        <v>85.3</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K9" t="n">
         <v>0.478</v>
       </c>
       <c r="L9" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M9" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="N9" t="n">
-        <v>0.344</v>
+        <v>0.342</v>
       </c>
       <c r="O9" t="n">
         <v>18</v>
@@ -1979,25 +2046,25 @@
         <v>25.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.696</v>
+        <v>0.695</v>
       </c>
       <c r="R9" t="n">
         <v>13.4</v>
       </c>
       <c r="S9" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T9" t="n">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="U9" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="V9" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W9" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X9" t="n">
         <v>6.6</v>
@@ -2012,13 +2079,13 @@
         <v>21.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>106</v>
+        <v>106.1</v>
       </c>
       <c r="AC9" t="n">
         <v>4.9</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE9" t="n">
         <v>4</v>
@@ -2048,7 +2115,7 @@
         <v>19</v>
       </c>
       <c r="AN9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO9" t="n">
         <v>7</v>
@@ -2057,7 +2124,7 @@
         <v>3</v>
       </c>
       <c r="AQ9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR9" t="n">
         <v>1</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-21-2012-13</t>
+          <t>2013-03-21</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-4.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2239,7 +2306,7 @@
         <v>14</v>
       </c>
       <c r="AQ10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR10" t="n">
         <v>10</v>
@@ -2257,7 +2324,7 @@
         <v>19</v>
       </c>
       <c r="AW10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX10" t="n">
         <v>14</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-21-2012-13</t>
+          <t>2013-03-21</t>
         </is>
       </c>
     </row>
@@ -2388,7 +2455,7 @@
         <v>10</v>
       </c>
       <c r="AF11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG11" t="n">
         <v>11</v>
@@ -2439,10 +2506,10 @@
         <v>25</v>
       </c>
       <c r="AW11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY11" t="n">
         <v>18</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-21-2012-13</t>
+          <t>2013-03-21</t>
         </is>
       </c>
     </row>
@@ -2564,19 +2631,19 @@
         <v>3.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE12" t="n">
         <v>12</v>
       </c>
       <c r="AF12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI12" t="n">
         <v>6</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-21-2012-13</t>
+          <t>2013-03-21</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>4.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
@@ -2818,7 +2885,7 @@
         <v>5</v>
       </c>
       <c r="BB13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC13" t="n">
         <v>6</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-21-2012-13</t>
+          <t>2013-03-21</t>
         </is>
       </c>
     </row>
@@ -2928,16 +2995,16 @@
         <v>6.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF14" t="n">
         <v>5</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH14" t="n">
         <v>30</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-21-2012-13</t>
+          <t>2013-03-21</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="AD15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE15" t="n">
         <v>13</v>
@@ -3140,7 +3207,7 @@
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO15" t="n">
         <v>4</v>
@@ -3152,7 +3219,7 @@
         <v>30</v>
       </c>
       <c r="AR15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS15" t="n">
         <v>3</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-21-2012-13</t>
+          <t>2013-03-21</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>4.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
         <v>6</v>
@@ -3304,7 +3371,7 @@
         <v>4</v>
       </c>
       <c r="AH16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI16" t="n">
         <v>21</v>
@@ -3313,7 +3380,7 @@
         <v>13</v>
       </c>
       <c r="AK16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3328,7 +3395,7 @@
         <v>22</v>
       </c>
       <c r="AP16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-21-2012-13</t>
+          <t>2013-03-21</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>7.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE17" t="n">
         <v>1</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-21-2012-13</t>
+          <t>2013-03-21</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-1.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
@@ -3668,7 +3735,7 @@
         <v>16</v>
       </c>
       <c r="AH18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI18" t="n">
         <v>7</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-21-2012-13</t>
+          <t>2013-03-21</t>
         </is>
       </c>
     </row>
@@ -3760,49 +3827,49 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" t="n">
         <v>23</v>
       </c>
       <c r="F19" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G19" t="n">
-        <v>0.348</v>
+        <v>0.354</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="J19" t="n">
-        <v>81.7</v>
+        <v>81.5</v>
       </c>
       <c r="K19" t="n">
         <v>0.434</v>
       </c>
       <c r="L19" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="M19" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="N19" t="n">
-        <v>0.294</v>
+        <v>0.298</v>
       </c>
       <c r="O19" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="P19" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.731</v>
+        <v>0.73</v>
       </c>
       <c r="R19" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S19" t="n">
         <v>30.2</v>
@@ -3811,7 +3878,7 @@
         <v>42.6</v>
       </c>
       <c r="U19" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="V19" t="n">
         <v>15.1</v>
@@ -3826,37 +3893,37 @@
         <v>6</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="AA19" t="n">
         <v>22.8</v>
       </c>
       <c r="AB19" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC19" t="n">
         <v>-3.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE19" t="n">
         <v>24</v>
       </c>
       <c r="AF19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH19" t="n">
         <v>26</v>
       </c>
       <c r="AI19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ19" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AK19" t="n">
         <v>28</v>
@@ -3880,7 +3947,7 @@
         <v>24</v>
       </c>
       <c r="AR19" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AS19" t="n">
         <v>18</v>
@@ -3910,7 +3977,7 @@
         <v>2</v>
       </c>
       <c r="BB19" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BC19" t="n">
         <v>22</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-21-2012-13</t>
+          <t>2013-03-21</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-3.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE20" t="n">
         <v>24</v>
@@ -4068,7 +4135,7 @@
         <v>25</v>
       </c>
       <c r="AT20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU20" t="n">
         <v>22</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-21-2012-13</t>
+          <t>2013-03-21</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>2.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE21" t="n">
         <v>8</v>
@@ -4220,7 +4287,7 @@
         <v>24</v>
       </c>
       <c r="AJ21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK21" t="n">
         <v>23</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-21-2012-13</t>
+          <t>2013-03-21</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>9.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
@@ -4396,7 +4463,7 @@
         <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI22" t="n">
         <v>8</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-21-2012-13</t>
+          <t>2013-03-21</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-6.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4584,7 +4651,7 @@
         <v>9</v>
       </c>
       <c r="AJ23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK23" t="n">
         <v>12</v>
@@ -4617,7 +4684,7 @@
         <v>15</v>
       </c>
       <c r="AU23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV23" t="n">
         <v>12</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-21-2012-13</t>
+          <t>2013-03-21</t>
         </is>
       </c>
     </row>
@@ -4670,28 +4737,28 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E24" t="n">
         <v>26</v>
       </c>
       <c r="F24" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G24" t="n">
-        <v>0.382</v>
+        <v>0.388</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
       </c>
       <c r="I24" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J24" t="n">
-        <v>83.7</v>
+        <v>83.8</v>
       </c>
       <c r="K24" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L24" t="n">
         <v>6.2</v>
@@ -4700,55 +4767,55 @@
         <v>17.4</v>
       </c>
       <c r="N24" t="n">
-        <v>0.359</v>
+        <v>0.358</v>
       </c>
       <c r="O24" t="n">
         <v>11.9</v>
       </c>
       <c r="P24" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.718</v>
+        <v>0.719</v>
       </c>
       <c r="R24" t="n">
         <v>10.7</v>
       </c>
       <c r="S24" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="T24" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U24" t="n">
         <v>22.9</v>
       </c>
       <c r="V24" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="W24" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X24" t="n">
         <v>4.9</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z24" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AA24" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="AB24" t="n">
-        <v>92.40000000000001</v>
+        <v>92.3</v>
       </c>
       <c r="AC24" t="n">
-        <v>-3.9</v>
+        <v>-4</v>
       </c>
       <c r="AD24" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AE24" t="n">
         <v>20</v>
@@ -4769,7 +4836,7 @@
         <v>6</v>
       </c>
       <c r="AK24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL24" t="n">
         <v>22</v>
@@ -4778,7 +4845,7 @@
         <v>24</v>
       </c>
       <c r="AN24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4793,10 +4860,10 @@
         <v>23</v>
       </c>
       <c r="AS24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU24" t="n">
         <v>11</v>
@@ -4805,13 +4872,13 @@
         <v>2</v>
       </c>
       <c r="AW24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX24" t="n">
         <v>18</v>
       </c>
       <c r="AY24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ24" t="n">
         <v>7</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-21-2012-13</t>
+          <t>2013-03-21</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-6</v>
       </c>
       <c r="AD25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
         <v>24</v>
@@ -5002,7 +5069,7 @@
         <v>27</v>
       </c>
       <c r="BB25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC25" t="n">
         <v>28</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-21-2012-13</t>
+          <t>2013-03-21</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E26" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F26" t="n">
         <v>36</v>
       </c>
       <c r="G26" t="n">
-        <v>0.471</v>
+        <v>0.463</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
@@ -5061,16 +5128,16 @@
         <v>8.300000000000001</v>
       </c>
       <c r="M26" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="N26" t="n">
-        <v>0.353</v>
+        <v>0.351</v>
       </c>
       <c r="O26" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="P26" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="Q26" t="n">
         <v>0.781</v>
@@ -5079,7 +5146,7 @@
         <v>11.1</v>
       </c>
       <c r="S26" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T26" t="n">
         <v>41.6</v>
@@ -5091,7 +5158,7 @@
         <v>14.7</v>
       </c>
       <c r="W26" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X26" t="n">
         <v>4.7</v>
@@ -5103,28 +5170,28 @@
         <v>18.6</v>
       </c>
       <c r="AA26" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AB26" t="n">
         <v>98.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>-1.3</v>
+        <v>-1.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AE26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF26" t="n">
         <v>18</v>
       </c>
       <c r="AG26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI26" t="n">
         <v>16</v>
@@ -5145,10 +5212,10 @@
         <v>22</v>
       </c>
       <c r="AO26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP26" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AQ26" t="n">
         <v>7</v>
@@ -5157,7 +5224,7 @@
         <v>17</v>
       </c>
       <c r="AS26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT26" t="n">
         <v>18</v>
@@ -5169,7 +5236,7 @@
         <v>16</v>
       </c>
       <c r="AW26" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AX26" t="n">
         <v>22</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-21-2012-13</t>
+          <t>2013-03-21</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F27" t="n">
         <v>44</v>
       </c>
       <c r="G27" t="n">
-        <v>0.362</v>
+        <v>0.353</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
@@ -5234,34 +5301,34 @@
         <v>37.3</v>
       </c>
       <c r="J27" t="n">
-        <v>83.59999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="K27" t="n">
-        <v>0.447</v>
+        <v>0.445</v>
       </c>
       <c r="L27" t="n">
         <v>7.3</v>
       </c>
       <c r="M27" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="N27" t="n">
-        <v>0.368</v>
+        <v>0.369</v>
       </c>
       <c r="O27" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="P27" t="n">
         <v>23</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.772</v>
+        <v>0.771</v>
       </c>
       <c r="R27" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S27" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="T27" t="n">
         <v>40.4</v>
@@ -5279,7 +5346,7 @@
         <v>4.2</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Z27" t="n">
         <v>21.2</v>
@@ -5291,10 +5358,10 @@
         <v>99.7</v>
       </c>
       <c r="AC27" t="n">
-        <v>-5</v>
+        <v>-5.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AE27" t="n">
         <v>22</v>
@@ -5303,16 +5370,16 @@
         <v>24</v>
       </c>
       <c r="AG27" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI27" t="n">
         <v>12</v>
       </c>
       <c r="AJ27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK27" t="n">
         <v>16</v>
@@ -5336,7 +5403,7 @@
         <v>11</v>
       </c>
       <c r="AR27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS27" t="n">
         <v>28</v>
@@ -5354,7 +5421,7 @@
         <v>8</v>
       </c>
       <c r="AX27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY27" t="n">
         <v>27</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-21-2012-13</t>
+          <t>2013-03-21</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>8</v>
       </c>
       <c r="AD28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
@@ -5488,7 +5555,7 @@
         <v>2</v>
       </c>
       <c r="AH28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI28" t="n">
         <v>2</v>
@@ -5530,7 +5597,7 @@
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW28" t="n">
         <v>4</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-21-2012-13</t>
+          <t>2013-03-21</t>
         </is>
       </c>
     </row>
@@ -5658,16 +5725,16 @@
         <v>-1.7</v>
       </c>
       <c r="AD29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE29" t="n">
         <v>20</v>
       </c>
       <c r="AF29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH29" t="n">
         <v>2</v>
@@ -5688,7 +5755,7 @@
         <v>10</v>
       </c>
       <c r="AN29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO29" t="n">
         <v>9</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-21-2012-13</t>
+          <t>2013-03-21</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-0.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE30" t="n">
         <v>16</v>
@@ -5852,13 +5919,13 @@
         <v>17</v>
       </c>
       <c r="AH30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI30" t="n">
         <v>18</v>
       </c>
       <c r="AJ30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK30" t="n">
         <v>15</v>
@@ -5882,7 +5949,7 @@
         <v>13</v>
       </c>
       <c r="AR30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS30" t="n">
         <v>23</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-21-2012-13</t>
+          <t>2013-03-21</t>
         </is>
       </c>
     </row>
@@ -6022,16 +6089,16 @@
         <v>-2.4</v>
       </c>
       <c r="AD31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF31" t="n">
         <v>23</v>
       </c>
-      <c r="AE31" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF31" t="n">
+      <c r="AG31" t="n">
         <v>22</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>23</v>
       </c>
       <c r="AH31" t="n">
         <v>6</v>
@@ -6040,7 +6107,7 @@
         <v>26</v>
       </c>
       <c r="AJ31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK31" t="n">
         <v>26</v>
@@ -6070,7 +6137,7 @@
         <v>7</v>
       </c>
       <c r="AT31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU31" t="n">
         <v>16</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-21-2012-13</t>
+          <t>2013-03-21</t>
         </is>
       </c>
     </row>
